--- a/src/test/resources/inputData.xlsx
+++ b/src/test/resources/inputData.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="UsuariosRegistro" r:id="rId3" sheetId="1"/>
+    <sheet name="LoginData" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>First Name</t>
   </si>
@@ -29,19 +30,40 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>juan.perez+1762923371353@example.com</t>
-  </si>
-  <si>
-    <t>5551234567</t>
+    <t>Dhens</t>
+  </si>
+  <si>
+    <t>Becerra</t>
+  </si>
+  <si>
+    <t>mazuerasofia57@gmail.com</t>
+  </si>
+  <si>
+    <t>3175600619</t>
+  </si>
+  <si>
+    <t>Misterio2571!</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
+    <t>test.user+1762927323024@example.com</t>
   </si>
   <si>
     <t>Password123</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>invalid.user@example.com</t>
+  </si>
+  <si>
+    <t>wrongpass</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -93,37 +115,83 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/inputData.xlsx
+++ b/src/test/resources/inputData.xlsx
@@ -6,55 +6,36 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="UsuariosRegistro" r:id="rId3" sheetId="1"/>
-    <sheet name="LoginData" r:id="rId4" sheetId="2"/>
+    <sheet name="LoginData" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>E-Mail</t>
-  </si>
-  <si>
-    <t>Telephone</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Dhens</t>
-  </si>
-  <si>
-    <t>Becerra</t>
-  </si>
-  <si>
-    <t>mazuerasofia57@gmail.com</t>
-  </si>
-  <si>
-    <t>3175600619</t>
-  </si>
-  <si>
-    <t>Misterio2571!</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
-    <t>test.user+1762927323024@example.com</t>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>test.user+1762984401833@example.com</t>
   </si>
   <si>
     <t>Password123</t>
   </si>
   <si>
     <t>success</t>
+  </si>
+  <si>
+    <t>Login exitoso con credenciales válidas</t>
   </si>
   <si>
     <t>invalid.user@example.com</t>
@@ -64,6 +45,15 @@
   </si>
   <si>
     <t>error</t>
+  </si>
+  <si>
+    <t>Login fallido - email y contraseña inválidos</t>
+  </si>
+  <si>
+    <t>WrongPassword123</t>
+  </si>
+  <si>
+    <t>Login fallido - contraseña incorrecta</t>
   </si>
 </sst>
 </file>
@@ -108,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -127,71 +117,47 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/inputData.xlsx
+++ b/src/test/resources/inputData.xlsx
@@ -6,54 +6,42 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginData" r:id="rId3" sheetId="1"/>
+    <sheet name="UsuariosRegistro" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
   <si>
     <t>E-Mail</t>
+  </si>
+  <si>
+    <t>Telephone</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Expected</t>
+    <t>Daniel</t>
   </si>
   <si>
-    <t>Descripcion</t>
+    <t>Patino</t>
   </si>
   <si>
-    <t>test.user+1762984401833@example.com</t>
+    <t>Daniel.Patino+1762995013940@example.com</t>
   </si>
   <si>
-    <t>Password123</t>
+    <t>3175600619</t>
   </si>
   <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>Login exitoso con credenciales válidas</t>
-  </si>
-  <si>
-    <t>invalid.user@example.com</t>
-  </si>
-  <si>
-    <t>wrongpass</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>Login fallido - email y contraseña inválidos</t>
-  </si>
-  <si>
-    <t>WrongPassword123</t>
-  </si>
-  <si>
-    <t>Login fallido - contraseña incorrecta</t>
+    <t>Misterio2571!</t>
   </si>
 </sst>
 </file>
@@ -98,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -117,47 +105,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E2" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
